--- a/Image data/gene relationship/traning.xlsx
+++ b/Image data/gene relationship/traning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\traning data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matf8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D79675-6DC2-4DD8-A4D9-F0D9C76BE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D227C6-87A7-4F74-9F9F-34D7B001EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC36686E-22F3-485A-B9D2-07EEDA6DAD15}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC36686E-22F3-485A-B9D2-07EEDA6DAD15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D97890D-2E55-4E23-8D42-52A3D6225F75}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>132</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>133</v>
       </c>
